--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
   <si>
     <t xml:space="preserve">Sección</t>
   </si>
@@ -368,7 +368,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -410,6 +410,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -496,21 +500,19 @@
   </sheetPr>
   <dimension ref="A2:K34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.015306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.4540816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.5408163265306"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.68367346938776"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.015306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.8775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.6173469387755"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -625,6 +627,9 @@
       <c r="D8" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="E8" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -636,6 +641,9 @@
       <c r="C9" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="E9" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -649,6 +657,9 @@
       <c r="C10" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="E10" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -660,6 +671,9 @@
       <c r="C11" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="E11" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -671,6 +685,9 @@
       <c r="C12" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="E12" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -693,16 +710,17 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>30</v>
       </c>
+      <c r="E14" s="4"/>
       <c r="F14" s="6"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -751,7 +769,7 @@
       <c r="K17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="0" t="s">

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -302,7 +302,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,6 +333,12 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC00"/>
+        <bgColor rgb="FF008000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
@@ -368,7 +374,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -407,6 +413,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -435,7 +445,7 @@
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF00CC00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -501,18 +511,20 @@
   <dimension ref="A2:K34"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.8775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.3367346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.6938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -613,7 +625,7 @@
       <c r="E7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="10"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -695,7 +707,7 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="0" t="s">
@@ -714,7 +726,7 @@
       <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="0" t="s">
@@ -769,7 +781,7 @@
       <c r="K17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="0" t="s">

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -1,17 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meraioth/Desktop/IS/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27980" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -20,117 +27,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
-  <si>
-    <t xml:space="preserve">Sección</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comentarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encargado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mejorar Informe antiguo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introducción</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambiar el modelo de procesos por RUP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cristóbal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agregar Descripción de cada Capitulo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modelado de Negocio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agregar Problema y solución</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requerimientos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Más especificidad en los requerimientos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No olvidar especificar Sistema/Usuario
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
+  <si>
+    <t>Sección</t>
+  </si>
+  <si>
+    <t>Tarea</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Encargado</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Mejorar Informe antiguo</t>
+  </si>
+  <si>
+    <t>Introducción</t>
+  </si>
+  <si>
+    <t>Cambiar el modelo de procesos por RUP</t>
+  </si>
+  <si>
+    <t>Cristóbal</t>
+  </si>
+  <si>
+    <t>Agregar Descripción de cada Capitulo</t>
+  </si>
+  <si>
+    <t>Modelado de Negocio</t>
+  </si>
+  <si>
+    <t>Agregar Problema y solución</t>
+  </si>
+  <si>
+    <t>Requerimientos</t>
+  </si>
+  <si>
+    <t>Más especificidad en los requerimientos</t>
+  </si>
+  <si>
+    <t>No olvidar especificar Sistema/Usuario
 Usuario = Turista + Empresario
 Verbos en Infinitivo</t>
   </si>
   <si>
-    <t xml:space="preserve">Matías</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diagrama CU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agregar &lt;extend&gt; que falta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agregar CU: Cambiar Criterio de Orden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuevo CU que tiene como objetivo
+    <t>Matías</t>
+  </si>
+  <si>
+    <t>Diagrama CU</t>
+  </si>
+  <si>
+    <t>Agregar &lt;extend&gt; que falta</t>
+  </si>
+  <si>
+    <t>Agregar CU: Cambiar Criterio de Orden</t>
+  </si>
+  <si>
+    <t>Nuevo CU que tiene como objetivo
 cambiar la categoría, por defecto ésta
 Será ordenado por calificación</t>
   </si>
   <si>
-    <t xml:space="preserve">Estandarizar CU (nomenclatura)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ver mapa temático</t>
+    <t>Estandarizar CU (nomenclatura)</t>
+  </si>
+  <si>
+    <t>Ver mapa temático</t>
   </si>
   <si>
     <t xml:space="preserve">Colocar el punto 4 en el CU: proveer info
 Geográfica </t>
   </si>
   <si>
-    <t xml:space="preserve">Agregar conexión con el CU: proveer info 
+    <t>Agregar conexión con el CU: proveer info 
 Geográfica</t>
   </si>
   <si>
-    <t xml:space="preserve">Cambiar Extensión por Excepción</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proveer Información 
+    <t>Cambiar Extensión por Excepción</t>
+  </si>
+  <si>
+    <t>Proveer Información 
 Geográfica</t>
   </si>
   <si>
     <t xml:space="preserve">Agregar participación del Sistema </t>
   </si>
   <si>
-    <t xml:space="preserve">Solo se nombra lo que hace el usuario
+    <t>Solo se nombra lo que hace el usuario
 Fijarse en expeficicar Empresario o Turista</t>
   </si>
   <si>
-    <t xml:space="preserve">Generar Ruta</t>
+    <t>Generar Ruta</t>
   </si>
   <si>
     <t xml:space="preserve">Agregar CU que incluye generar ruta
 a proveer Info. Geográfica </t>
   </si>
   <si>
-    <t xml:space="preserve">Ojo con las conexiones con otros CU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agregar participación del Sistema</t>
+    <t>Ojo con las conexiones con otros CU</t>
+  </si>
+  <si>
+    <t>Agregar participación del Sistema</t>
   </si>
   <si>
     <t xml:space="preserve">Actualizar Información </t>
   </si>
   <si>
-    <t xml:space="preserve">Especificar que base de datos es la que se 
+    <t>Especificar que base de datos es la que se 
 Modifica</t>
   </si>
   <si>
@@ -140,35 +147,35 @@
 escenario principal de éxito </t>
   </si>
   <si>
-    <t xml:space="preserve">Agregar excepción cuando no se actualiza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buscar Lugares o 
+    <t>Agregar excepción cuando no se actualiza</t>
+  </si>
+  <si>
+    <t>Buscar Lugares o 
 Servicio</t>
   </si>
   <si>
     <t xml:space="preserve">Especificar el escenario  principal de éxito </t>
   </si>
   <si>
-    <t xml:space="preserve">separar el primer punto en 1.- Ingresa
+    <t>separar el primer punto en 1.- Ingresa
 2.-Selecciona Categoría(cuales)
 3.-Busca</t>
   </si>
   <si>
-    <t xml:space="preserve">Agregar el valor de búsqueda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agregar conexión con el CU: Cambiar 
+    <t>Agregar el valor de búsqueda</t>
+  </si>
+  <si>
+    <t>Agregar conexión con el CU: Cambiar 
 Criterio de orden</t>
   </si>
   <si>
     <t xml:space="preserve">Quitar 1’ </t>
   </si>
   <si>
-    <t xml:space="preserve">No es una excepción</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluar Servicio</t>
+    <t>No es una excepción</t>
+  </si>
+  <si>
+    <t>Evaluar Servicio</t>
   </si>
   <si>
     <t xml:space="preserve">Separar el escenario principal de éxito </t>
@@ -180,7 +187,7 @@
     <t xml:space="preserve">Eliminar 1’b </t>
   </si>
   <si>
-    <t xml:space="preserve">Añadir Lugar a Itinerario</t>
+    <t>Añadir Lugar a Itinerario</t>
   </si>
   <si>
     <t xml:space="preserve">Corregir punto 3 </t>
@@ -190,13 +197,13 @@
 Las palabras itinerario. </t>
   </si>
   <si>
-    <t xml:space="preserve">Buscar Itinerario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliminar 2’b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartir Itinerario</t>
+    <t>Buscar Itinerario</t>
+  </si>
+  <si>
+    <t>Eliminar 2’b</t>
+  </si>
+  <si>
+    <t>Compartir Itinerario</t>
   </si>
   <si>
     <t xml:space="preserve">Punto 2 </t>
@@ -205,13 +212,13 @@
     <t xml:space="preserve">Preguntar en piazza que es CFDR </t>
   </si>
   <si>
-    <t xml:space="preserve">Visualizar Itinerario</t>
+    <t>Visualizar Itinerario</t>
   </si>
   <si>
     <t xml:space="preserve">Corregir Excepción </t>
   </si>
   <si>
-    <t xml:space="preserve">Dice “itinerario” dos veces</t>
+    <t>Dice “itinerario” dos veces</t>
   </si>
   <si>
     <t xml:space="preserve">Entregar Información </t>
@@ -220,11 +227,11 @@
     <t xml:space="preserve">Eliminar </t>
   </si>
   <si>
-    <t xml:space="preserve">Sacar porque no lo hace el sistema
+    <t>Sacar porque no lo hace el sistema
 solo descargamos un excel</t>
   </si>
   <si>
-    <t xml:space="preserve">Testing</t>
+    <t>Testing</t>
   </si>
   <si>
     <t xml:space="preserve">Preguntar al profe a que se refiere con el testing </t>
@@ -233,7 +240,7 @@
     <t xml:space="preserve">Conclusiones </t>
   </si>
   <si>
-    <t xml:space="preserve">Mejorar la conclusión</t>
+    <t>Mejorar la conclusión</t>
   </si>
   <si>
     <t xml:space="preserve">Mas especificidad </t>
@@ -242,23 +249,23 @@
     <t xml:space="preserve">Estética </t>
   </si>
   <si>
-    <t xml:space="preserve">Saltos de linea y formato latex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ortografía y Redacción</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuando este todo listo revisar ésto</t>
+    <t>Saltos de linea y formato latex</t>
+  </si>
+  <si>
+    <t>Ortografía y Redacción</t>
+  </si>
+  <si>
+    <t>Cuando este todo listo revisar ésto</t>
+  </si>
+  <si>
+    <t>Mera</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -266,43 +273,28 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,9 +325,15 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -343,93 +341,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -488,34 +432,304 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.8775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.6173469387755"/>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -537,17 +751,17 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="6"/>
@@ -556,12 +770,12 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B4" s="5"/>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="6"/>
@@ -570,7 +784,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
@@ -584,17 +798,17 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:11" ht="52" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="6"/>
@@ -603,14 +817,14 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="6"/>
@@ -619,15 +833,15 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:11" ht="52" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="6"/>
@@ -636,12 +850,12 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B9" s="7"/>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="6"/>
@@ -650,14 +864,14 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:11" ht="26" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="6"/>
@@ -666,12 +880,12 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:11" ht="26" x14ac:dyDescent="0.15">
       <c r="B11" s="5"/>
       <c r="C11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="6"/>
@@ -680,12 +894,12 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B12" s="5"/>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="6"/>
@@ -694,15 +908,18 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:11" ht="52" x14ac:dyDescent="0.15">
       <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>27</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="F13" s="6"/>
       <c r="H13" s="4"/>
@@ -710,27 +927,32 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:11" ht="26" x14ac:dyDescent="0.15">
       <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B15" s="5"/>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>31</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="F15" s="6"/>
       <c r="H15" s="4"/>
@@ -738,7 +960,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="43.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:11" ht="52" x14ac:dyDescent="0.15">
       <c r="B16" s="7" t="s">
         <v>32</v>
       </c>
@@ -748,7 +970,7 @@
       <c r="D16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="6"/>
@@ -757,9 +979,9 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B17" s="7"/>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>35</v>
       </c>
       <c r="F17" s="6"/>
@@ -768,11 +990,11 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:11" ht="52" x14ac:dyDescent="0.15">
       <c r="B18" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="9" t="s">
@@ -784,71 +1006,71 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B19" s="5"/>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>39</v>
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:11" ht="26" x14ac:dyDescent="0.15">
       <c r="B20" s="5"/>
       <c r="C20" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B21" s="5"/>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>42</v>
       </c>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>45</v>
       </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" s="7"/>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>31</v>
       </c>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" s="7"/>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>42</v>
       </c>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B25" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:11" ht="39" x14ac:dyDescent="0.15">
       <c r="B26" s="5"/>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -856,80 +1078,86 @@
       </c>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B27" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>42</v>
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>54</v>
       </c>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>57</v>
       </c>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:11" ht="26" x14ac:dyDescent="0.15">
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>59</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>60</v>
       </c>
+      <c r="E30" t="s">
+        <v>70</v>
+      </c>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B31" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>62</v>
       </c>
+      <c r="E31" t="s">
+        <v>70</v>
+      </c>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B32" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" t="s">
         <v>65</v>
       </c>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>67</v>
       </c>
       <c r="E33" s="8" t="s">
@@ -937,11 +1165,11 @@
       </c>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" t="s">
         <v>69</v>
       </c>
       <c r="E34" s="8" t="s">
@@ -950,10 +1178,9 @@
       <c r="F34" s="6"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
   </headerFooter>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -302,7 +302,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,8 +323,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
+        <fgColor rgb="FF00CC33"/>
+        <bgColor rgb="FF00CC00"/>
       </patternFill>
     </fill>
     <fill>
@@ -335,8 +335,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00CC00"/>
-        <bgColor rgb="FF008000"/>
+        <bgColor rgb="FF00CC33"/>
       </patternFill>
     </fill>
   </fills>
@@ -374,7 +380,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -416,6 +422,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -491,7 +501,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00CC33"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -510,21 +520,21 @@
   </sheetPr>
   <dimension ref="A2:K34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.3367346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.6938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.7959183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -609,7 +619,7 @@
       <c r="E6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="10"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -625,7 +635,7 @@
       <c r="E7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="11"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -642,7 +652,7 @@
       <c r="E8" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="10"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -656,7 +666,7 @@
       <c r="E9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="10"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -672,7 +682,7 @@
       <c r="E10" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="10"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -686,7 +696,7 @@
       <c r="E11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="10"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -700,14 +710,14 @@
       <c r="E12" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="10"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="0" t="s">
@@ -716,7 +726,7 @@
       <c r="D13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="10"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -726,14 +736,14 @@
       <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="6"/>
+      <c r="F14" s="10"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -744,7 +754,7 @@
       <c r="C15" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="10"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -781,7 +791,7 @@
       <c r="K17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="0" t="s">
@@ -790,7 +800,7 @@
       <c r="D18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="6"/>
+      <c r="F18" s="10"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -801,14 +811,14 @@
       <c r="C19" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="6"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="5"/>
       <c r="C20" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="6"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="5"/>
@@ -818,7 +828,7 @@
       <c r="D21" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="6"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="s">
@@ -830,14 +840,14 @@
       <c r="D22" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="6"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="7"/>
       <c r="C23" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="7"/>
@@ -847,7 +857,7 @@
       <c r="D24" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="6"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="5" t="s">
@@ -856,7 +866,7 @@
       <c r="C25" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="6"/>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="5"/>
@@ -866,7 +876,7 @@
       <c r="D26" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="6"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="7" t="s">
@@ -878,7 +888,7 @@
       <c r="D27" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="6"/>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="5" t="s">
@@ -890,7 +900,7 @@
       <c r="D28" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="6"/>
+      <c r="F28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="7" t="s">
@@ -902,7 +912,7 @@
       <c r="D29" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="6"/>
+      <c r="F29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="5" t="s">
@@ -914,7 +924,7 @@
       <c r="D30" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="6"/>
+      <c r="F30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="7" t="s">
@@ -923,7 +933,7 @@
       <c r="C31" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="6"/>
+      <c r="F31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="5" t="s">
@@ -935,7 +945,7 @@
       <c r="D32" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="6"/>
+      <c r="F32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="7" t="s">
@@ -947,7 +957,7 @@
       <c r="E33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="6"/>
+      <c r="F33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="5" t="s">
@@ -959,7 +969,7 @@
       <c r="E34" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="6"/>
+      <c r="F34" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
